--- a/output-raw/cliente-duf/DuFrio - MMA - Standard Freight Table - v2_20180524.xlsx
+++ b/output-raw/cliente-duf/DuFrio - MMA - Standard Freight Table - v2_20180524.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20344"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\03 Clientes\Dufrio\2 Tabelas de frete\MMA\old\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BlueShift075\Documents\GitHub\Intelipost-Media\output-raw\cliente-duf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{191E54A4-E290-4342-B6BD-78D36FE82BFA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B85918-C120-4647-B26A-790E0EB5A622}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21268" windowHeight="7842" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21270" windowHeight="7840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comments" sheetId="9" r:id="rId1"/>
@@ -25,13 +25,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Coverage!$A$1:$MI$814</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Freight Table'!$A$1:$H$3138</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Generalities!$A$1:$D$354</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4622" uniqueCount="1258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4631" uniqueCount="1266">
   <si>
     <t>max_width</t>
   </si>
@@ -3805,6 +3806,30 @@
   </si>
   <si>
     <t>Restringir ao CD1</t>
+  </si>
+  <si>
+    <t>cubagem</t>
+  </si>
+  <si>
+    <t>pedagio</t>
+  </si>
+  <si>
+    <t>despacho</t>
+  </si>
+  <si>
+    <t>emex</t>
+  </si>
+  <si>
+    <t>tda</t>
+  </si>
+  <si>
+    <t>trt</t>
+  </si>
+  <si>
+    <t>imposto</t>
+  </si>
+  <si>
+    <t>será cobrado = true</t>
   </si>
 </sst>
 </file>
@@ -4066,6 +4091,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4078,7 +4104,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4176,7 +4201,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4503,29 +4528,29 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="80.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="24" t="s">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="25" t="s">
         <v>415</v>
       </c>
-      <c r="G1" s="24"/>
-    </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G1" s="25"/>
+    </row>
+    <row r="2" spans="1:7" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>109</v>
       </c>
@@ -4596,117 +4621,117 @@
   </sheetPr>
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.296875" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="20.5" style="20"/>
-    <col min="6" max="6" width="25.19921875" style="20"/>
-    <col min="7" max="7" width="20.5" style="20"/>
-    <col min="8" max="8" width="21.796875" style="20"/>
-    <col min="9" max="1025" width="17.296875" style="20"/>
-    <col min="1026" max="16384" width="9.19921875" style="20"/>
+    <col min="1" max="1" width="29.26953125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="20.453125" style="20"/>
+    <col min="6" max="6" width="25.1796875" style="20"/>
+    <col min="7" max="7" width="20.453125" style="20"/>
+    <col min="8" max="8" width="21.81640625" style="20"/>
+    <col min="9" max="1025" width="17.26953125" style="20"/>
+    <col min="1026" max="16384" width="9.1796875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="28">
+      <c r="B1" s="24">
         <v>29136519</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="24">
         <v>29136519</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="14.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:1" ht="14.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:1" ht="14.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:1" ht="14.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4721,360 +4746,360 @@
   <dimension ref="A1:MI814"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.69921875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="7.69921875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="8.19921875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="7.796875" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7265625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7.453125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7265625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1796875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="7.81640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.453125" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="8" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.296875" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="13.296875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="13.296875" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="14.796875" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="15.19921875" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="17.19921875" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="7.69921875" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="31.5" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="6.796875" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="7.296875" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="7.796875" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="8.19921875" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="7.5" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="9.796875" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="12.796875" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="12.19921875" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="12.796875" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="14.5" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="14.19921875" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="14.796875" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="14.296875" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="16.5" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="7.296875" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="30.796875" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="6.796875" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="7.5" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="9.5" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="12.5" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="11.69921875" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="12.5" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="14.19921875" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="13.796875" hidden="1" customWidth="1"/>
-    <col min="54" max="54" width="14.5" hidden="1" customWidth="1"/>
-    <col min="55" max="55" width="13.796875" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="16.296875" hidden="1" customWidth="1"/>
-    <col min="57" max="57" width="6.796875" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="30.296875" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="7.296875" hidden="1" customWidth="1"/>
-    <col min="60" max="60" width="7.5" hidden="1" customWidth="1"/>
-    <col min="61" max="61" width="8.19921875" hidden="1" customWidth="1"/>
-    <col min="62" max="62" width="7.796875" hidden="1" customWidth="1"/>
-    <col min="63" max="63" width="8.5" hidden="1" customWidth="1"/>
-    <col min="64" max="64" width="7.796875" hidden="1" customWidth="1"/>
-    <col min="65" max="65" width="10.19921875" hidden="1" customWidth="1"/>
-    <col min="66" max="66" width="13.19921875" hidden="1" customWidth="1"/>
-    <col min="67" max="67" width="12.5" hidden="1" customWidth="1"/>
-    <col min="68" max="68" width="13.19921875" hidden="1" customWidth="1"/>
-    <col min="69" max="69" width="14.69921875" hidden="1" customWidth="1"/>
-    <col min="70" max="70" width="14.5" hidden="1" customWidth="1"/>
-    <col min="71" max="71" width="15.19921875" hidden="1" customWidth="1"/>
-    <col min="72" max="72" width="14.5" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="13.26953125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="13.26953125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="14.81640625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="14.453125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="15.1796875" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="14.453125" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="17.1796875" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="7.7265625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="31.453125" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="6.81640625" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="7.26953125" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="7.81640625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="7.453125" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="8.1796875" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="7.453125" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="12.81640625" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="12.1796875" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="12.81640625" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="14.453125" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="14.1796875" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="14.81640625" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="14.26953125" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="16.453125" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="7.26953125" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="30.81640625" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="6.81640625" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="7.453125" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9.453125" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="12.453125" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="11.7265625" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="12.453125" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="14.1796875" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="13.81640625" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="14.453125" hidden="1" customWidth="1"/>
+    <col min="55" max="55" width="13.81640625" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="16.26953125" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="6.81640625" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="30.26953125" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="7.26953125" hidden="1" customWidth="1"/>
+    <col min="60" max="60" width="7.453125" hidden="1" customWidth="1"/>
+    <col min="61" max="61" width="8.1796875" hidden="1" customWidth="1"/>
+    <col min="62" max="62" width="7.81640625" hidden="1" customWidth="1"/>
+    <col min="63" max="63" width="8.453125" hidden="1" customWidth="1"/>
+    <col min="64" max="64" width="7.81640625" hidden="1" customWidth="1"/>
+    <col min="65" max="65" width="10.1796875" hidden="1" customWidth="1"/>
+    <col min="66" max="66" width="13.1796875" hidden="1" customWidth="1"/>
+    <col min="67" max="67" width="12.453125" hidden="1" customWidth="1"/>
+    <col min="68" max="68" width="13.1796875" hidden="1" customWidth="1"/>
+    <col min="69" max="69" width="14.7265625" hidden="1" customWidth="1"/>
+    <col min="70" max="70" width="14.453125" hidden="1" customWidth="1"/>
+    <col min="71" max="71" width="15.1796875" hidden="1" customWidth="1"/>
+    <col min="72" max="72" width="14.453125" hidden="1" customWidth="1"/>
     <col min="73" max="73" width="17" hidden="1" customWidth="1"/>
-    <col min="74" max="74" width="7.5" hidden="1" customWidth="1"/>
+    <col min="74" max="74" width="7.453125" hidden="1" customWidth="1"/>
     <col min="75" max="75" width="31" hidden="1" customWidth="1"/>
-    <col min="76" max="76" width="7.19921875" hidden="1" customWidth="1"/>
-    <col min="77" max="77" width="7.5" hidden="1" customWidth="1"/>
+    <col min="76" max="76" width="7.1796875" hidden="1" customWidth="1"/>
+    <col min="77" max="77" width="7.453125" hidden="1" customWidth="1"/>
     <col min="78" max="78" width="8" hidden="1" customWidth="1"/>
-    <col min="79" max="79" width="7.69921875" hidden="1" customWidth="1"/>
-    <col min="80" max="80" width="8.5" hidden="1" customWidth="1"/>
-    <col min="81" max="81" width="7.796875" hidden="1" customWidth="1"/>
-    <col min="82" max="82" width="10.19921875" hidden="1" customWidth="1"/>
-    <col min="83" max="83" width="13.19921875" hidden="1" customWidth="1"/>
-    <col min="84" max="84" width="12.5" hidden="1" customWidth="1"/>
-    <col min="85" max="85" width="13.19921875" hidden="1" customWidth="1"/>
-    <col min="86" max="86" width="14.69921875" hidden="1" customWidth="1"/>
-    <col min="87" max="87" width="14.5" hidden="1" customWidth="1"/>
-    <col min="88" max="88" width="15.19921875" hidden="1" customWidth="1"/>
-    <col min="89" max="89" width="14.5" hidden="1" customWidth="1"/>
+    <col min="79" max="79" width="7.7265625" hidden="1" customWidth="1"/>
+    <col min="80" max="80" width="8.453125" hidden="1" customWidth="1"/>
+    <col min="81" max="81" width="7.81640625" hidden="1" customWidth="1"/>
+    <col min="82" max="82" width="10.1796875" hidden="1" customWidth="1"/>
+    <col min="83" max="83" width="13.1796875" hidden="1" customWidth="1"/>
+    <col min="84" max="84" width="12.453125" hidden="1" customWidth="1"/>
+    <col min="85" max="85" width="13.1796875" hidden="1" customWidth="1"/>
+    <col min="86" max="86" width="14.7265625" hidden="1" customWidth="1"/>
+    <col min="87" max="87" width="14.453125" hidden="1" customWidth="1"/>
+    <col min="88" max="88" width="15.1796875" hidden="1" customWidth="1"/>
+    <col min="89" max="89" width="14.453125" hidden="1" customWidth="1"/>
     <col min="90" max="90" width="17" hidden="1" customWidth="1"/>
-    <col min="91" max="91" width="7.5" hidden="1" customWidth="1"/>
+    <col min="91" max="91" width="7.453125" hidden="1" customWidth="1"/>
     <col min="92" max="92" width="31" hidden="1" customWidth="1"/>
     <col min="93" max="93" width="7" hidden="1" customWidth="1"/>
-    <col min="94" max="94" width="7.5" hidden="1" customWidth="1"/>
-    <col min="95" max="95" width="7.796875" hidden="1" customWidth="1"/>
-    <col min="96" max="96" width="7.5" hidden="1" customWidth="1"/>
-    <col min="97" max="97" width="8.19921875" hidden="1" customWidth="1"/>
-    <col min="98" max="98" width="7.69921875" hidden="1" customWidth="1"/>
+    <col min="94" max="94" width="7.453125" hidden="1" customWidth="1"/>
+    <col min="95" max="95" width="7.81640625" hidden="1" customWidth="1"/>
+    <col min="96" max="96" width="7.453125" hidden="1" customWidth="1"/>
+    <col min="97" max="97" width="8.1796875" hidden="1" customWidth="1"/>
+    <col min="98" max="98" width="7.7265625" hidden="1" customWidth="1"/>
     <col min="99" max="99" width="10" hidden="1" customWidth="1"/>
-    <col min="100" max="100" width="12.796875" hidden="1" customWidth="1"/>
-    <col min="101" max="101" width="12.19921875" hidden="1" customWidth="1"/>
-    <col min="102" max="102" width="12.796875" hidden="1" customWidth="1"/>
-    <col min="103" max="103" width="14.5" hidden="1" customWidth="1"/>
-    <col min="104" max="104" width="14.19921875" hidden="1" customWidth="1"/>
-    <col min="105" max="105" width="14.796875" hidden="1" customWidth="1"/>
-    <col min="106" max="106" width="14.5" hidden="1" customWidth="1"/>
-    <col min="107" max="107" width="16.69921875" hidden="1" customWidth="1"/>
-    <col min="108" max="108" width="7.5" hidden="1" customWidth="1"/>
+    <col min="100" max="100" width="12.81640625" hidden="1" customWidth="1"/>
+    <col min="101" max="101" width="12.1796875" hidden="1" customWidth="1"/>
+    <col min="102" max="102" width="12.81640625" hidden="1" customWidth="1"/>
+    <col min="103" max="103" width="14.453125" hidden="1" customWidth="1"/>
+    <col min="104" max="104" width="14.1796875" hidden="1" customWidth="1"/>
+    <col min="105" max="105" width="14.81640625" hidden="1" customWidth="1"/>
+    <col min="106" max="106" width="14.453125" hidden="1" customWidth="1"/>
+    <col min="107" max="107" width="16.7265625" hidden="1" customWidth="1"/>
+    <col min="108" max="108" width="7.453125" hidden="1" customWidth="1"/>
     <col min="109" max="109" width="31" hidden="1" customWidth="1"/>
-    <col min="110" max="110" width="10.796875" hidden="1" customWidth="1"/>
-    <col min="111" max="111" width="11.19921875" hidden="1" customWidth="1"/>
-    <col min="112" max="113" width="11.5" hidden="1" customWidth="1"/>
+    <col min="110" max="110" width="10.81640625" hidden="1" customWidth="1"/>
+    <col min="111" max="111" width="11.1796875" hidden="1" customWidth="1"/>
+    <col min="112" max="113" width="11.453125" hidden="1" customWidth="1"/>
     <col min="114" max="114" width="12" hidden="1" customWidth="1"/>
-    <col min="115" max="115" width="11.5" hidden="1" customWidth="1"/>
-    <col min="116" max="116" width="13.796875" hidden="1" customWidth="1"/>
-    <col min="117" max="117" width="16.796875" hidden="1" customWidth="1"/>
-    <col min="118" max="118" width="16.19921875" hidden="1" customWidth="1"/>
-    <col min="119" max="119" width="16.796875" hidden="1" customWidth="1"/>
-    <col min="120" max="120" width="18.5" hidden="1" customWidth="1"/>
-    <col min="121" max="121" width="18.19921875" hidden="1" customWidth="1"/>
-    <col min="122" max="122" width="18.796875" hidden="1" customWidth="1"/>
-    <col min="123" max="123" width="18.296875" hidden="1" customWidth="1"/>
-    <col min="124" max="124" width="20.5" hidden="1" customWidth="1"/>
-    <col min="125" max="125" width="11.19921875" hidden="1" customWidth="1"/>
-    <col min="126" max="126" width="35.5" hidden="1" customWidth="1"/>
-    <col min="127" max="127" width="17.69921875" hidden="1" customWidth="1"/>
+    <col min="115" max="115" width="11.453125" hidden="1" customWidth="1"/>
+    <col min="116" max="116" width="13.81640625" hidden="1" customWidth="1"/>
+    <col min="117" max="117" width="16.81640625" hidden="1" customWidth="1"/>
+    <col min="118" max="118" width="16.1796875" hidden="1" customWidth="1"/>
+    <col min="119" max="119" width="16.81640625" hidden="1" customWidth="1"/>
+    <col min="120" max="120" width="18.453125" hidden="1" customWidth="1"/>
+    <col min="121" max="121" width="18.1796875" hidden="1" customWidth="1"/>
+    <col min="122" max="122" width="18.81640625" hidden="1" customWidth="1"/>
+    <col min="123" max="123" width="18.26953125" hidden="1" customWidth="1"/>
+    <col min="124" max="124" width="20.453125" hidden="1" customWidth="1"/>
+    <col min="125" max="125" width="11.1796875" hidden="1" customWidth="1"/>
+    <col min="126" max="126" width="35.453125" hidden="1" customWidth="1"/>
+    <col min="127" max="127" width="17.7265625" hidden="1" customWidth="1"/>
     <col min="128" max="128" width="18" hidden="1" customWidth="1"/>
-    <col min="129" max="129" width="18.5" hidden="1" customWidth="1"/>
-    <col min="130" max="130" width="18.19921875" hidden="1" customWidth="1"/>
-    <col min="131" max="131" width="18.796875" hidden="1" customWidth="1"/>
-    <col min="132" max="132" width="18.5" hidden="1" customWidth="1"/>
-    <col min="133" max="133" width="20.69921875" hidden="1" customWidth="1"/>
-    <col min="134" max="134" width="23.5" hidden="1" customWidth="1"/>
+    <col min="129" max="129" width="18.453125" hidden="1" customWidth="1"/>
+    <col min="130" max="130" width="18.1796875" hidden="1" customWidth="1"/>
+    <col min="131" max="131" width="18.81640625" hidden="1" customWidth="1"/>
+    <col min="132" max="132" width="18.453125" hidden="1" customWidth="1"/>
+    <col min="133" max="133" width="20.7265625" hidden="1" customWidth="1"/>
+    <col min="134" max="134" width="23.453125" hidden="1" customWidth="1"/>
     <col min="135" max="135" width="23" hidden="1" customWidth="1"/>
-    <col min="136" max="136" width="23.5" hidden="1" customWidth="1"/>
-    <col min="137" max="137" width="25.5" hidden="1" customWidth="1"/>
-    <col min="138" max="138" width="24.796875" hidden="1" customWidth="1"/>
-    <col min="139" max="139" width="25.69921875" hidden="1" customWidth="1"/>
-    <col min="140" max="140" width="25.19921875" hidden="1" customWidth="1"/>
-    <col min="141" max="141" width="27.5" hidden="1" customWidth="1"/>
+    <col min="136" max="136" width="23.453125" hidden="1" customWidth="1"/>
+    <col min="137" max="137" width="25.453125" hidden="1" customWidth="1"/>
+    <col min="138" max="138" width="24.81640625" hidden="1" customWidth="1"/>
+    <col min="139" max="139" width="25.7265625" hidden="1" customWidth="1"/>
+    <col min="140" max="140" width="25.1796875" hidden="1" customWidth="1"/>
+    <col min="141" max="141" width="27.453125" hidden="1" customWidth="1"/>
     <col min="142" max="142" width="18" hidden="1" customWidth="1"/>
-    <col min="143" max="143" width="43.19921875" hidden="1" customWidth="1"/>
-    <col min="144" max="144" width="7.19921875" hidden="1" customWidth="1"/>
-    <col min="145" max="145" width="7.5" hidden="1" customWidth="1"/>
+    <col min="143" max="143" width="43.1796875" hidden="1" customWidth="1"/>
+    <col min="144" max="144" width="7.1796875" hidden="1" customWidth="1"/>
+    <col min="145" max="145" width="7.453125" hidden="1" customWidth="1"/>
     <col min="146" max="146" width="8" hidden="1" customWidth="1"/>
-    <col min="147" max="147" width="7.69921875" hidden="1" customWidth="1"/>
-    <col min="148" max="148" width="8.5" hidden="1" customWidth="1"/>
-    <col min="149" max="149" width="7.796875" hidden="1" customWidth="1"/>
-    <col min="150" max="150" width="10.19921875" hidden="1" customWidth="1"/>
-    <col min="151" max="151" width="13.19921875" hidden="1" customWidth="1"/>
-    <col min="152" max="152" width="12.5" hidden="1" customWidth="1"/>
-    <col min="153" max="153" width="13.19921875" hidden="1" customWidth="1"/>
-    <col min="154" max="154" width="14.69921875" hidden="1" customWidth="1"/>
-    <col min="155" max="155" width="14.5" hidden="1" customWidth="1"/>
-    <col min="156" max="156" width="15.19921875" hidden="1" customWidth="1"/>
-    <col min="157" max="157" width="14.5" hidden="1" customWidth="1"/>
+    <col min="147" max="147" width="7.7265625" hidden="1" customWidth="1"/>
+    <col min="148" max="148" width="8.453125" hidden="1" customWidth="1"/>
+    <col min="149" max="149" width="7.81640625" hidden="1" customWidth="1"/>
+    <col min="150" max="150" width="10.1796875" hidden="1" customWidth="1"/>
+    <col min="151" max="151" width="13.1796875" hidden="1" customWidth="1"/>
+    <col min="152" max="152" width="12.453125" hidden="1" customWidth="1"/>
+    <col min="153" max="153" width="13.1796875" hidden="1" customWidth="1"/>
+    <col min="154" max="154" width="14.7265625" hidden="1" customWidth="1"/>
+    <col min="155" max="155" width="14.453125" hidden="1" customWidth="1"/>
+    <col min="156" max="156" width="15.1796875" hidden="1" customWidth="1"/>
+    <col min="157" max="157" width="14.453125" hidden="1" customWidth="1"/>
     <col min="158" max="158" width="17" hidden="1" customWidth="1"/>
-    <col min="159" max="159" width="7.5" hidden="1" customWidth="1"/>
-    <col min="160" max="160" width="30.796875" hidden="1" customWidth="1"/>
-    <col min="161" max="161" width="9.69921875" hidden="1" customWidth="1"/>
+    <col min="159" max="159" width="7.453125" hidden="1" customWidth="1"/>
+    <col min="160" max="160" width="30.81640625" hidden="1" customWidth="1"/>
+    <col min="161" max="161" width="9.7265625" hidden="1" customWidth="1"/>
     <col min="162" max="162" width="10" hidden="1" customWidth="1"/>
-    <col min="163" max="163" width="10.5" hidden="1" customWidth="1"/>
-    <col min="164" max="164" width="10.19921875" hidden="1" customWidth="1"/>
-    <col min="165" max="165" width="10.796875" hidden="1" customWidth="1"/>
-    <col min="166" max="166" width="10.5" hidden="1" customWidth="1"/>
-    <col min="167" max="167" width="12.69921875" hidden="1" customWidth="1"/>
-    <col min="168" max="168" width="15.5" hidden="1" customWidth="1"/>
+    <col min="163" max="163" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="164" max="164" width="10.1796875" hidden="1" customWidth="1"/>
+    <col min="165" max="165" width="10.81640625" hidden="1" customWidth="1"/>
+    <col min="166" max="166" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="167" max="167" width="12.7265625" hidden="1" customWidth="1"/>
+    <col min="168" max="168" width="15.453125" hidden="1" customWidth="1"/>
     <col min="169" max="169" width="15" hidden="1" customWidth="1"/>
-    <col min="170" max="170" width="15.5" hidden="1" customWidth="1"/>
-    <col min="171" max="171" width="17.5" hidden="1" customWidth="1"/>
+    <col min="170" max="170" width="15.453125" hidden="1" customWidth="1"/>
+    <col min="171" max="171" width="17.453125" hidden="1" customWidth="1"/>
     <col min="172" max="172" width="17" hidden="1" customWidth="1"/>
-    <col min="173" max="173" width="17.69921875" hidden="1" customWidth="1"/>
-    <col min="174" max="174" width="17.19921875" hidden="1" customWidth="1"/>
-    <col min="175" max="175" width="19.5" hidden="1" customWidth="1"/>
+    <col min="173" max="173" width="17.7265625" hidden="1" customWidth="1"/>
+    <col min="174" max="174" width="17.1796875" hidden="1" customWidth="1"/>
+    <col min="175" max="175" width="19.453125" hidden="1" customWidth="1"/>
     <col min="176" max="176" width="10" hidden="1" customWidth="1"/>
-    <col min="177" max="177" width="34.19921875" hidden="1" customWidth="1"/>
-    <col min="178" max="178" width="10.796875" hidden="1" customWidth="1"/>
-    <col min="179" max="179" width="11.19921875" hidden="1" customWidth="1"/>
-    <col min="180" max="181" width="11.5" hidden="1" customWidth="1"/>
+    <col min="177" max="177" width="34.1796875" hidden="1" customWidth="1"/>
+    <col min="178" max="178" width="10.81640625" hidden="1" customWidth="1"/>
+    <col min="179" max="179" width="11.1796875" hidden="1" customWidth="1"/>
+    <col min="180" max="181" width="11.453125" hidden="1" customWidth="1"/>
     <col min="182" max="182" width="12" hidden="1" customWidth="1"/>
-    <col min="183" max="183" width="11.5" hidden="1" customWidth="1"/>
-    <col min="184" max="184" width="13.796875" hidden="1" customWidth="1"/>
-    <col min="185" max="185" width="16.796875" hidden="1" customWidth="1"/>
+    <col min="183" max="183" width="11.453125" hidden="1" customWidth="1"/>
+    <col min="184" max="184" width="13.81640625" hidden="1" customWidth="1"/>
+    <col min="185" max="185" width="16.81640625" hidden="1" customWidth="1"/>
     <col min="186" max="186" width="16" hidden="1" customWidth="1"/>
-    <col min="187" max="187" width="16.796875" hidden="1" customWidth="1"/>
-    <col min="188" max="188" width="18.5" hidden="1" customWidth="1"/>
-    <col min="189" max="189" width="18.19921875" hidden="1" customWidth="1"/>
-    <col min="190" max="190" width="18.69921875" hidden="1" customWidth="1"/>
-    <col min="191" max="191" width="18.19921875" hidden="1" customWidth="1"/>
-    <col min="192" max="192" width="20.5" hidden="1" customWidth="1"/>
-    <col min="193" max="193" width="11.19921875" hidden="1" customWidth="1"/>
-    <col min="194" max="194" width="35.19921875" hidden="1" customWidth="1"/>
+    <col min="187" max="187" width="16.81640625" hidden="1" customWidth="1"/>
+    <col min="188" max="188" width="18.453125" hidden="1" customWidth="1"/>
+    <col min="189" max="189" width="18.1796875" hidden="1" customWidth="1"/>
+    <col min="190" max="190" width="18.7265625" hidden="1" customWidth="1"/>
+    <col min="191" max="191" width="18.1796875" hidden="1" customWidth="1"/>
+    <col min="192" max="192" width="20.453125" hidden="1" customWidth="1"/>
+    <col min="193" max="193" width="11.1796875" hidden="1" customWidth="1"/>
+    <col min="194" max="194" width="35.1796875" hidden="1" customWidth="1"/>
     <col min="195" max="195" width="7" hidden="1" customWidth="1"/>
-    <col min="196" max="196" width="7.5" hidden="1" customWidth="1"/>
-    <col min="197" max="197" width="7.796875" hidden="1" customWidth="1"/>
-    <col min="198" max="198" width="7.5" hidden="1" customWidth="1"/>
-    <col min="199" max="199" width="8.19921875" hidden="1" customWidth="1"/>
-    <col min="200" max="200" width="7.69921875" hidden="1" customWidth="1"/>
-    <col min="201" max="201" width="9.796875" hidden="1" customWidth="1"/>
-    <col min="202" max="202" width="12.796875" hidden="1" customWidth="1"/>
-    <col min="203" max="203" width="12.19921875" hidden="1" customWidth="1"/>
-    <col min="204" max="204" width="12.796875" hidden="1" customWidth="1"/>
-    <col min="205" max="205" width="14.5" hidden="1" customWidth="1"/>
-    <col min="206" max="206" width="14.19921875" hidden="1" customWidth="1"/>
-    <col min="207" max="207" width="14.796875" hidden="1" customWidth="1"/>
-    <col min="208" max="208" width="14.296875" hidden="1" customWidth="1"/>
-    <col min="209" max="209" width="16.5" hidden="1" customWidth="1"/>
-    <col min="210" max="210" width="7.5" hidden="1" customWidth="1"/>
-    <col min="211" max="211" width="30.796875" hidden="1" customWidth="1"/>
-    <col min="212" max="212" width="9.5" hidden="1" customWidth="1"/>
-    <col min="213" max="213" width="9.69921875" hidden="1" customWidth="1"/>
-    <col min="214" max="214" width="10.296875" hidden="1" customWidth="1"/>
-    <col min="215" max="215" width="9.796875" hidden="1" customWidth="1"/>
-    <col min="216" max="216" width="10.5" hidden="1" customWidth="1"/>
+    <col min="196" max="196" width="7.453125" hidden="1" customWidth="1"/>
+    <col min="197" max="197" width="7.81640625" hidden="1" customWidth="1"/>
+    <col min="198" max="198" width="7.453125" hidden="1" customWidth="1"/>
+    <col min="199" max="199" width="8.1796875" hidden="1" customWidth="1"/>
+    <col min="200" max="200" width="7.7265625" hidden="1" customWidth="1"/>
+    <col min="201" max="201" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="202" max="202" width="12.81640625" hidden="1" customWidth="1"/>
+    <col min="203" max="203" width="12.1796875" hidden="1" customWidth="1"/>
+    <col min="204" max="204" width="12.81640625" hidden="1" customWidth="1"/>
+    <col min="205" max="205" width="14.453125" hidden="1" customWidth="1"/>
+    <col min="206" max="206" width="14.1796875" hidden="1" customWidth="1"/>
+    <col min="207" max="207" width="14.81640625" hidden="1" customWidth="1"/>
+    <col min="208" max="208" width="14.26953125" hidden="1" customWidth="1"/>
+    <col min="209" max="209" width="16.453125" hidden="1" customWidth="1"/>
+    <col min="210" max="210" width="7.453125" hidden="1" customWidth="1"/>
+    <col min="211" max="211" width="30.81640625" hidden="1" customWidth="1"/>
+    <col min="212" max="212" width="9.453125" hidden="1" customWidth="1"/>
+    <col min="213" max="213" width="9.7265625" hidden="1" customWidth="1"/>
+    <col min="214" max="214" width="10.26953125" hidden="1" customWidth="1"/>
+    <col min="215" max="215" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="216" max="216" width="10.453125" hidden="1" customWidth="1"/>
     <col min="217" max="217" width="10" hidden="1" customWidth="1"/>
-    <col min="218" max="218" width="12.296875" hidden="1" customWidth="1"/>
-    <col min="219" max="219" width="15.296875" hidden="1" customWidth="1"/>
-    <col min="220" max="220" width="14.5" hidden="1" customWidth="1"/>
-    <col min="221" max="221" width="15.296875" hidden="1" customWidth="1"/>
+    <col min="218" max="218" width="12.26953125" hidden="1" customWidth="1"/>
+    <col min="219" max="219" width="15.26953125" hidden="1" customWidth="1"/>
+    <col min="220" max="220" width="14.453125" hidden="1" customWidth="1"/>
+    <col min="221" max="221" width="15.26953125" hidden="1" customWidth="1"/>
     <col min="222" max="222" width="17" hidden="1" customWidth="1"/>
-    <col min="223" max="223" width="16.5" hidden="1" customWidth="1"/>
-    <col min="224" max="224" width="17.296875" hidden="1" customWidth="1"/>
-    <col min="225" max="225" width="16.796875" hidden="1" customWidth="1"/>
-    <col min="226" max="226" width="19.19921875" hidden="1" customWidth="1"/>
-    <col min="227" max="227" width="9.69921875" hidden="1" customWidth="1"/>
+    <col min="223" max="223" width="16.453125" hidden="1" customWidth="1"/>
+    <col min="224" max="224" width="17.26953125" hidden="1" customWidth="1"/>
+    <col min="225" max="225" width="16.81640625" hidden="1" customWidth="1"/>
+    <col min="226" max="226" width="19.1796875" hidden="1" customWidth="1"/>
+    <col min="227" max="227" width="9.7265625" hidden="1" customWidth="1"/>
     <col min="228" max="228" width="34" hidden="1" customWidth="1"/>
-    <col min="229" max="229" width="6.5" hidden="1" customWidth="1"/>
-    <col min="230" max="230" width="6.69921875" hidden="1" customWidth="1"/>
-    <col min="231" max="231" width="7.296875" hidden="1" customWidth="1"/>
-    <col min="232" max="232" width="6.796875" hidden="1" customWidth="1"/>
-    <col min="233" max="233" width="7.5" hidden="1" customWidth="1"/>
+    <col min="229" max="229" width="6.453125" hidden="1" customWidth="1"/>
+    <col min="230" max="230" width="6.7265625" hidden="1" customWidth="1"/>
+    <col min="231" max="231" width="7.26953125" hidden="1" customWidth="1"/>
+    <col min="232" max="232" width="6.81640625" hidden="1" customWidth="1"/>
+    <col min="233" max="233" width="7.453125" hidden="1" customWidth="1"/>
     <col min="234" max="234" width="7" hidden="1" customWidth="1"/>
-    <col min="235" max="235" width="9.5" hidden="1" customWidth="1"/>
-    <col min="236" max="236" width="12.19921875" hidden="1" customWidth="1"/>
-    <col min="237" max="237" width="11.5" hidden="1" customWidth="1"/>
-    <col min="238" max="238" width="12.19921875" hidden="1" customWidth="1"/>
-    <col min="239" max="239" width="13.796875" hidden="1" customWidth="1"/>
-    <col min="240" max="240" width="13.5" hidden="1" customWidth="1"/>
-    <col min="241" max="241" width="14.296875" hidden="1" customWidth="1"/>
-    <col min="242" max="242" width="13.69921875" hidden="1" customWidth="1"/>
-    <col min="243" max="243" width="16.19921875" hidden="1" customWidth="1"/>
-    <col min="244" max="244" width="6.69921875" hidden="1" customWidth="1"/>
-    <col min="245" max="245" width="30.19921875" hidden="1" customWidth="1"/>
+    <col min="235" max="235" width="9.453125" hidden="1" customWidth="1"/>
+    <col min="236" max="236" width="12.1796875" hidden="1" customWidth="1"/>
+    <col min="237" max="237" width="11.453125" hidden="1" customWidth="1"/>
+    <col min="238" max="238" width="12.1796875" hidden="1" customWidth="1"/>
+    <col min="239" max="239" width="13.81640625" hidden="1" customWidth="1"/>
+    <col min="240" max="240" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="241" max="241" width="14.26953125" hidden="1" customWidth="1"/>
+    <col min="242" max="242" width="13.7265625" hidden="1" customWidth="1"/>
+    <col min="243" max="243" width="16.1796875" hidden="1" customWidth="1"/>
+    <col min="244" max="244" width="6.7265625" hidden="1" customWidth="1"/>
+    <col min="245" max="245" width="30.1796875" hidden="1" customWidth="1"/>
     <col min="246" max="246" width="12" hidden="1" customWidth="1"/>
-    <col min="247" max="247" width="12.296875" hidden="1" customWidth="1"/>
-    <col min="248" max="248" width="12.796875" hidden="1" customWidth="1"/>
-    <col min="249" max="249" width="12.5" hidden="1" customWidth="1"/>
-    <col min="250" max="250" width="13.296875" hidden="1" customWidth="1"/>
-    <col min="251" max="251" width="12.69921875" hidden="1" customWidth="1"/>
-    <col min="252" max="252" width="15.19921875" hidden="1" customWidth="1"/>
+    <col min="247" max="247" width="12.26953125" hidden="1" customWidth="1"/>
+    <col min="248" max="248" width="12.81640625" hidden="1" customWidth="1"/>
+    <col min="249" max="249" width="12.453125" hidden="1" customWidth="1"/>
+    <col min="250" max="250" width="13.26953125" hidden="1" customWidth="1"/>
+    <col min="251" max="251" width="12.7265625" hidden="1" customWidth="1"/>
+    <col min="252" max="252" width="15.1796875" hidden="1" customWidth="1"/>
     <col min="253" max="253" width="18" hidden="1" customWidth="1"/>
-    <col min="254" max="254" width="17.5" hidden="1" customWidth="1"/>
+    <col min="254" max="254" width="17.453125" hidden="1" customWidth="1"/>
     <col min="255" max="255" width="18" hidden="1" customWidth="1"/>
-    <col min="256" max="256" width="19.5" hidden="1" customWidth="1"/>
-    <col min="257" max="257" width="19.296875" hidden="1" customWidth="1"/>
+    <col min="256" max="256" width="19.453125" hidden="1" customWidth="1"/>
+    <col min="257" max="257" width="19.26953125" hidden="1" customWidth="1"/>
     <col min="258" max="258" width="20" hidden="1" customWidth="1"/>
-    <col min="259" max="259" width="19.5" hidden="1" customWidth="1"/>
-    <col min="260" max="260" width="21.796875" hidden="1" customWidth="1"/>
-    <col min="261" max="261" width="12.296875" hidden="1" customWidth="1"/>
-    <col min="262" max="262" width="36.796875" hidden="1" customWidth="1"/>
-    <col min="263" max="263" width="9.796875" hidden="1" customWidth="1"/>
-    <col min="264" max="264" width="10.296875" hidden="1" customWidth="1"/>
-    <col min="265" max="265" width="10.796875" hidden="1" customWidth="1"/>
-    <col min="266" max="266" width="10.5" hidden="1" customWidth="1"/>
-    <col min="267" max="267" width="11.19921875" hidden="1" customWidth="1"/>
-    <col min="268" max="268" width="10.5" hidden="1" customWidth="1"/>
-    <col min="269" max="269" width="12.796875" hidden="1" customWidth="1"/>
-    <col min="270" max="270" width="15.796875" hidden="1" customWidth="1"/>
-    <col min="271" max="271" width="15.19921875" hidden="1" customWidth="1"/>
-    <col min="272" max="272" width="15.796875" hidden="1" customWidth="1"/>
-    <col min="273" max="273" width="17.5" hidden="1" customWidth="1"/>
-    <col min="274" max="274" width="17.19921875" hidden="1" customWidth="1"/>
-    <col min="275" max="275" width="17.796875" hidden="1" customWidth="1"/>
-    <col min="276" max="276" width="17.296875" hidden="1" customWidth="1"/>
-    <col min="277" max="277" width="19.5" hidden="1" customWidth="1"/>
-    <col min="278" max="278" width="10.296875" hidden="1" customWidth="1"/>
+    <col min="259" max="259" width="19.453125" hidden="1" customWidth="1"/>
+    <col min="260" max="260" width="21.81640625" hidden="1" customWidth="1"/>
+    <col min="261" max="261" width="12.26953125" hidden="1" customWidth="1"/>
+    <col min="262" max="262" width="36.81640625" hidden="1" customWidth="1"/>
+    <col min="263" max="263" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="264" max="264" width="10.26953125" hidden="1" customWidth="1"/>
+    <col min="265" max="265" width="10.81640625" hidden="1" customWidth="1"/>
+    <col min="266" max="266" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="267" max="267" width="11.1796875" hidden="1" customWidth="1"/>
+    <col min="268" max="268" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="269" max="269" width="12.81640625" hidden="1" customWidth="1"/>
+    <col min="270" max="270" width="15.81640625" hidden="1" customWidth="1"/>
+    <col min="271" max="271" width="15.1796875" hidden="1" customWidth="1"/>
+    <col min="272" max="272" width="15.81640625" hidden="1" customWidth="1"/>
+    <col min="273" max="273" width="17.453125" hidden="1" customWidth="1"/>
+    <col min="274" max="274" width="17.1796875" hidden="1" customWidth="1"/>
+    <col min="275" max="275" width="17.81640625" hidden="1" customWidth="1"/>
+    <col min="276" max="276" width="17.26953125" hidden="1" customWidth="1"/>
+    <col min="277" max="277" width="19.453125" hidden="1" customWidth="1"/>
+    <col min="278" max="278" width="10.26953125" hidden="1" customWidth="1"/>
     <col min="279" max="279" width="34" hidden="1" customWidth="1"/>
-    <col min="280" max="280" width="18.5" hidden="1" customWidth="1"/>
-    <col min="281" max="281" width="18.796875" hidden="1" customWidth="1"/>
-    <col min="282" max="282" width="19.5" hidden="1" customWidth="1"/>
-    <col min="283" max="283" width="19.19921875" hidden="1" customWidth="1"/>
-    <col min="284" max="284" width="19.69921875" hidden="1" customWidth="1"/>
-    <col min="285" max="285" width="19.296875" hidden="1" customWidth="1"/>
-    <col min="286" max="286" width="21.5" hidden="1" customWidth="1"/>
-    <col min="287" max="287" width="24.5" hidden="1" customWidth="1"/>
-    <col min="288" max="288" width="23.796875" hidden="1" customWidth="1"/>
-    <col min="289" max="289" width="24.5" hidden="1" customWidth="1"/>
-    <col min="290" max="290" width="26.19921875" hidden="1" customWidth="1"/>
-    <col min="291" max="291" width="25.796875" hidden="1" customWidth="1"/>
-    <col min="292" max="292" width="26.5" hidden="1" customWidth="1"/>
+    <col min="280" max="280" width="18.453125" hidden="1" customWidth="1"/>
+    <col min="281" max="281" width="18.81640625" hidden="1" customWidth="1"/>
+    <col min="282" max="282" width="19.453125" hidden="1" customWidth="1"/>
+    <col min="283" max="283" width="19.1796875" hidden="1" customWidth="1"/>
+    <col min="284" max="284" width="19.7265625" hidden="1" customWidth="1"/>
+    <col min="285" max="285" width="19.26953125" hidden="1" customWidth="1"/>
+    <col min="286" max="286" width="21.453125" hidden="1" customWidth="1"/>
+    <col min="287" max="287" width="24.453125" hidden="1" customWidth="1"/>
+    <col min="288" max="288" width="23.81640625" hidden="1" customWidth="1"/>
+    <col min="289" max="289" width="24.453125" hidden="1" customWidth="1"/>
+    <col min="290" max="290" width="26.1796875" hidden="1" customWidth="1"/>
+    <col min="291" max="291" width="25.81640625" hidden="1" customWidth="1"/>
+    <col min="292" max="292" width="26.453125" hidden="1" customWidth="1"/>
     <col min="293" max="293" width="26" hidden="1" customWidth="1"/>
-    <col min="294" max="294" width="28.296875" hidden="1" customWidth="1"/>
-    <col min="295" max="295" width="18.796875" hidden="1" customWidth="1"/>
+    <col min="294" max="294" width="28.26953125" hidden="1" customWidth="1"/>
+    <col min="295" max="295" width="18.81640625" hidden="1" customWidth="1"/>
     <col min="296" max="296" width="44" hidden="1" customWidth="1"/>
-    <col min="297" max="297" width="12.69921875" hidden="1" customWidth="1"/>
+    <col min="297" max="297" width="12.7265625" hidden="1" customWidth="1"/>
     <col min="298" max="298" width="13" hidden="1" customWidth="1"/>
-    <col min="299" max="299" width="13.5" hidden="1" customWidth="1"/>
-    <col min="300" max="300" width="13.296875" hidden="1" customWidth="1"/>
-    <col min="301" max="301" width="13.796875" hidden="1" customWidth="1"/>
-    <col min="302" max="302" width="13.5" hidden="1" customWidth="1"/>
-    <col min="303" max="303" width="15.69921875" hidden="1" customWidth="1"/>
-    <col min="304" max="304" width="18.5" hidden="1" customWidth="1"/>
+    <col min="299" max="299" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="300" max="300" width="13.26953125" hidden="1" customWidth="1"/>
+    <col min="301" max="301" width="13.81640625" hidden="1" customWidth="1"/>
+    <col min="302" max="302" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="303" max="303" width="15.7265625" hidden="1" customWidth="1"/>
+    <col min="304" max="304" width="18.453125" hidden="1" customWidth="1"/>
     <col min="305" max="305" width="18" hidden="1" customWidth="1"/>
-    <col min="306" max="306" width="18.5" hidden="1" customWidth="1"/>
-    <col min="307" max="307" width="20.296875" hidden="1" customWidth="1"/>
-    <col min="308" max="308" width="19.796875" hidden="1" customWidth="1"/>
-    <col min="309" max="309" width="20.5" hidden="1" customWidth="1"/>
-    <col min="310" max="310" width="20.19921875" hidden="1" customWidth="1"/>
-    <col min="311" max="311" width="22.5" hidden="1" customWidth="1"/>
+    <col min="306" max="306" width="18.453125" hidden="1" customWidth="1"/>
+    <col min="307" max="307" width="20.26953125" hidden="1" customWidth="1"/>
+    <col min="308" max="308" width="19.81640625" hidden="1" customWidth="1"/>
+    <col min="309" max="309" width="20.453125" hidden="1" customWidth="1"/>
+    <col min="310" max="310" width="20.1796875" hidden="1" customWidth="1"/>
+    <col min="311" max="311" width="22.453125" hidden="1" customWidth="1"/>
     <col min="312" max="312" width="13" hidden="1" customWidth="1"/>
-    <col min="313" max="313" width="37.5" hidden="1" customWidth="1"/>
-    <col min="314" max="314" width="13.796875" hidden="1" customWidth="1"/>
-    <col min="315" max="315" width="14.5" hidden="1" customWidth="1"/>
+    <col min="313" max="313" width="37.453125" hidden="1" customWidth="1"/>
+    <col min="314" max="314" width="13.81640625" hidden="1" customWidth="1"/>
+    <col min="315" max="315" width="14.453125" hidden="1" customWidth="1"/>
     <col min="316" max="316" width="15" hidden="1" customWidth="1"/>
-    <col min="317" max="317" width="14.5" hidden="1" customWidth="1"/>
-    <col min="318" max="318" width="15.5" hidden="1" customWidth="1"/>
-    <col min="319" max="319" width="14.796875" hidden="1" customWidth="1"/>
-    <col min="320" max="320" width="17.5" hidden="1" customWidth="1"/>
-    <col min="321" max="321" width="18.796875" hidden="1" customWidth="1"/>
-    <col min="322" max="322" width="18.19921875" hidden="1" customWidth="1"/>
-    <col min="323" max="323" width="18.796875" hidden="1" customWidth="1"/>
-    <col min="324" max="324" width="20.5" hidden="1" customWidth="1"/>
-    <col min="325" max="325" width="20.19921875" hidden="1" customWidth="1"/>
-    <col min="326" max="326" width="20.796875" hidden="1" customWidth="1"/>
-    <col min="327" max="327" width="20.19921875" hidden="1" customWidth="1"/>
-    <col min="328" max="328" width="22.5" hidden="1" customWidth="1"/>
-    <col min="329" max="329" width="13.296875" hidden="1" customWidth="1"/>
-    <col min="330" max="330" width="37.296875" hidden="1" customWidth="1"/>
-    <col min="331" max="331" width="12.19921875" hidden="1" customWidth="1"/>
-    <col min="332" max="332" width="12.5" hidden="1" customWidth="1"/>
-    <col min="333" max="333" width="13.19921875" hidden="1" customWidth="1"/>
-    <col min="334" max="334" width="12.796875" hidden="1" customWidth="1"/>
-    <col min="335" max="335" width="13.5" hidden="1" customWidth="1"/>
-    <col min="336" max="336" width="12.796875" hidden="1" customWidth="1"/>
-    <col min="337" max="337" width="15.19921875" hidden="1" customWidth="1"/>
-    <col min="338" max="338" width="18.19921875" hidden="1" customWidth="1"/>
-    <col min="339" max="339" width="17.5" hidden="1" customWidth="1"/>
-    <col min="340" max="340" width="18.19921875" hidden="1" customWidth="1"/>
-    <col min="341" max="341" width="19.69921875" hidden="1" customWidth="1"/>
-    <col min="342" max="342" width="19.5" hidden="1" customWidth="1"/>
-    <col min="343" max="343" width="20.19921875" hidden="1" customWidth="1"/>
-    <col min="344" max="344" width="19.5" hidden="1" customWidth="1"/>
+    <col min="317" max="317" width="14.453125" hidden="1" customWidth="1"/>
+    <col min="318" max="318" width="15.453125" hidden="1" customWidth="1"/>
+    <col min="319" max="319" width="14.81640625" hidden="1" customWidth="1"/>
+    <col min="320" max="320" width="17.453125" hidden="1" customWidth="1"/>
+    <col min="321" max="321" width="18.81640625" hidden="1" customWidth="1"/>
+    <col min="322" max="322" width="18.1796875" hidden="1" customWidth="1"/>
+    <col min="323" max="323" width="18.81640625" hidden="1" customWidth="1"/>
+    <col min="324" max="324" width="20.453125" hidden="1" customWidth="1"/>
+    <col min="325" max="325" width="20.1796875" hidden="1" customWidth="1"/>
+    <col min="326" max="326" width="20.81640625" hidden="1" customWidth="1"/>
+    <col min="327" max="327" width="20.1796875" hidden="1" customWidth="1"/>
+    <col min="328" max="328" width="22.453125" hidden="1" customWidth="1"/>
+    <col min="329" max="329" width="13.26953125" hidden="1" customWidth="1"/>
+    <col min="330" max="330" width="37.26953125" hidden="1" customWidth="1"/>
+    <col min="331" max="331" width="12.1796875" hidden="1" customWidth="1"/>
+    <col min="332" max="332" width="12.453125" hidden="1" customWidth="1"/>
+    <col min="333" max="333" width="13.1796875" hidden="1" customWidth="1"/>
+    <col min="334" max="334" width="12.81640625" hidden="1" customWidth="1"/>
+    <col min="335" max="335" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="336" max="336" width="12.81640625" hidden="1" customWidth="1"/>
+    <col min="337" max="337" width="15.1796875" hidden="1" customWidth="1"/>
+    <col min="338" max="338" width="18.1796875" hidden="1" customWidth="1"/>
+    <col min="339" max="339" width="17.453125" hidden="1" customWidth="1"/>
+    <col min="340" max="340" width="18.1796875" hidden="1" customWidth="1"/>
+    <col min="341" max="341" width="19.7265625" hidden="1" customWidth="1"/>
+    <col min="342" max="342" width="19.453125" hidden="1" customWidth="1"/>
+    <col min="343" max="343" width="20.1796875" hidden="1" customWidth="1"/>
+    <col min="344" max="344" width="19.453125" hidden="1" customWidth="1"/>
     <col min="345" max="345" width="22" hidden="1" customWidth="1"/>
-    <col min="346" max="346" width="12.5" hidden="1" customWidth="1"/>
-    <col min="347" max="347" width="36.5" hidden="1" customWidth="1"/>
-    <col min="348" max="1204" width="17.296875"/>
+    <col min="346" max="346" width="12.453125" hidden="1" customWidth="1"/>
+    <col min="347" max="347" width="36.453125" hidden="1" customWidth="1"/>
+    <col min="348" max="1204" width="17.26953125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:347" s="6" customFormat="1" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:347" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>5</v>
       </c>
@@ -30574,24 +30599,24 @@
   </sheetPr>
   <dimension ref="A1:K354"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D351" sqref="D351"/>
+    <sheetView tabSelected="1" topLeftCell="A334" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A354" sqref="A354"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.796875" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" style="20"/>
-    <col min="4" max="4" width="18.296875" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.81640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="20"/>
+    <col min="4" max="4" width="18.26953125" style="20" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="18" style="20"/>
-    <col min="10" max="10" width="26.69921875" style="20"/>
+    <col min="10" max="10" width="26.7265625" style="20"/>
     <col min="11" max="11" width="32" style="20"/>
-    <col min="12" max="1025" width="17.296875" style="20"/>
-    <col min="1026" max="16384" width="9.19921875" style="20"/>
+    <col min="12" max="1025" width="17.26953125" style="20"/>
+    <col min="1026" max="16384" width="9.1796875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>12</v>
       </c>
@@ -30605,7 +30630,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>13</v>
       </c>
@@ -30619,12 +30644,15 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B3">
         <v>300</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>1258</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="4"/>
@@ -30633,7 +30661,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>126</v>
       </c>
@@ -30647,7 +30675,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>15</v>
       </c>
@@ -30662,7 +30690,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>16</v>
       </c>
@@ -30678,7 +30706,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>17</v>
       </c>
@@ -30692,7 +30720,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>419</v>
       </c>
@@ -30709,7 +30737,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>125</v>
       </c>
@@ -30726,7 +30754,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>56</v>
       </c>
@@ -30740,7 +30768,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>57</v>
       </c>
@@ -30754,7 +30782,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>58</v>
       </c>
@@ -30766,7 +30794,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>59</v>
       </c>
@@ -30783,7 +30811,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>60</v>
       </c>
@@ -30800,7 +30828,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
         <v>61</v>
       </c>
@@ -30817,7 +30845,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>62</v>
       </c>
@@ -30831,7 +30859,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>224</v>
       </c>
@@ -30845,7 +30873,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>225</v>
       </c>
@@ -30857,7 +30885,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>226</v>
       </c>
@@ -30869,7 +30897,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
         <v>227</v>
       </c>
@@ -30881,7 +30909,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
         <v>228</v>
       </c>
@@ -30893,7 +30921,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
         <v>229</v>
       </c>
@@ -30905,7 +30933,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
         <v>230</v>
       </c>
@@ -30917,7 +30945,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
         <v>231</v>
       </c>
@@ -30929,7 +30957,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
         <v>232</v>
       </c>
@@ -30941,7 +30969,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
         <v>233</v>
       </c>
@@ -30953,7 +30981,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
         <v>418</v>
       </c>
@@ -30965,7 +30993,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
         <v>131</v>
       </c>
@@ -30977,7 +31005,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
         <v>132</v>
       </c>
@@ -30989,7 +31017,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
         <v>133</v>
       </c>
@@ -31003,7 +31031,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
         <v>134</v>
       </c>
@@ -31017,7 +31045,7 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
         <v>135</v>
       </c>
@@ -31031,7 +31059,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
         <v>136</v>
       </c>
@@ -31045,7 +31073,7 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>234</v>
       </c>
@@ -31057,7 +31085,7 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="s">
         <v>235</v>
       </c>
@@ -31069,7 +31097,7 @@
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="14" t="s">
         <v>236</v>
       </c>
@@ -31081,7 +31109,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="15" t="s">
         <v>237</v>
       </c>
@@ -31093,7 +31121,7 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="15" t="s">
         <v>238</v>
       </c>
@@ -31105,7 +31133,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
         <v>239</v>
       </c>
@@ -31117,7 +31145,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="15" t="s">
         <v>240</v>
       </c>
@@ -31129,7 +31157,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="15" t="s">
         <v>241</v>
       </c>
@@ -31141,7 +31169,7 @@
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="16" t="s">
         <v>242</v>
       </c>
@@ -31153,7 +31181,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
         <v>243</v>
       </c>
@@ -31165,9 +31193,12 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="13" t="s">
         <v>137</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>1263</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -31177,7 +31208,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
         <v>138</v>
       </c>
@@ -31189,7 +31220,7 @@
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="13" t="s">
         <v>139</v>
       </c>
@@ -31201,7 +31232,7 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="13" t="s">
         <v>140</v>
       </c>
@@ -31213,7 +31244,7 @@
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="13" t="s">
         <v>141</v>
       </c>
@@ -31225,7 +31256,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="13" t="s">
         <v>142</v>
       </c>
@@ -31237,7 +31268,7 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="13" t="s">
         <v>143</v>
       </c>
@@ -31249,7 +31280,7 @@
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="14" t="s">
         <v>244</v>
       </c>
@@ -31261,7 +31292,7 @@
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="14" t="s">
         <v>245</v>
       </c>
@@ -31273,7 +31304,7 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="14" t="s">
         <v>246</v>
       </c>
@@ -31285,7 +31316,7 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="15" t="s">
         <v>247</v>
       </c>
@@ -31297,7 +31328,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" s="15" t="s">
         <v>248</v>
       </c>
@@ -31309,7 +31340,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" s="15" t="s">
         <v>249</v>
       </c>
@@ -31321,7 +31352,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" s="15" t="s">
         <v>250</v>
       </c>
@@ -31333,7 +31364,7 @@
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" s="15" t="s">
         <v>251</v>
       </c>
@@ -31345,7 +31376,7 @@
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" s="16" t="s">
         <v>252</v>
       </c>
@@ -31356,7 +31387,7 @@
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" s="17" t="s">
         <v>253</v>
       </c>
@@ -31367,7 +31398,7 @@
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" s="13" t="s">
         <v>144</v>
       </c>
@@ -31378,7 +31409,7 @@
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A62" s="13" t="s">
         <v>145</v>
       </c>
@@ -31389,7 +31420,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" s="13" t="s">
         <v>146</v>
       </c>
@@ -31403,7 +31434,7 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" s="13" t="s">
         <v>147</v>
       </c>
@@ -31414,7 +31445,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" s="13" t="s">
         <v>148</v>
       </c>
@@ -31425,7 +31456,7 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" s="13" t="s">
         <v>149</v>
       </c>
@@ -31436,7 +31467,7 @@
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67" s="13" t="s">
         <v>150</v>
       </c>
@@ -31449,7 +31480,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A68" s="14" t="s">
         <v>254</v>
       </c>
@@ -31460,1412 +31491,1424 @@
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="20" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A94" s="17" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A110" s="16" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A122" s="15" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A123" s="15" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A124" s="15" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A125" s="15" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A126" s="15" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A127" s="16" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A128" s="17" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A139" s="15" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A140" s="15" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A141" s="15" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A142" s="15" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A144" s="16" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A145" s="17" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C146" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A156" s="15" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A157" s="15" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A158" s="15" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A159" s="15" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A160" s="15" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A161" s="16" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A162" s="17" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A163" s="13" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A164" s="13" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A165" s="13" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A168" s="13" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A169" s="13" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A170" s="14" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A171" s="14" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A172" s="14" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A173" s="15" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A174" s="15" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A175" s="15" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A176" s="15" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A177" s="15" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A178" s="16" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A179" s="17" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A180" s="13" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C180" s="20" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A181" s="13" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A182" s="13" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A183" s="13" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A184" s="13" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A185" s="13" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A186" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A187" s="14" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A188" s="14" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="189" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A189" s="14" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A190" s="15" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A191" s="15" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A192" s="15" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="193" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A193" s="15" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="194" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A194" s="15" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A195" s="16" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A196" s="17" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="197" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A197" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="198" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A198" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A199" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A200" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A201" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="202" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A202" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A203" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="204" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A204" s="14" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="205" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A205" s="14" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A206" s="14" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A207" s="15" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="208" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A208" s="15" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="209" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A209" s="15" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A210" s="15" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="211" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A211" s="15" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="212" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A212" s="16" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="213" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A213" s="17" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="214" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A214" s="13" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="215" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A215" s="13" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="216" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A216" s="13" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="217" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A217" s="13" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="218" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A218" s="13" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="219" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A219" s="13" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A220" s="13" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="221" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A221" s="14" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="222" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A222" s="14" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="223" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A223" s="14" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A224" s="15" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A225" s="15" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A226" s="15" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="227" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A227" s="15" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A228" s="15" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A229" s="16" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="230" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A230" s="17" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A231" s="13" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A232" s="13" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="233" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A233" s="13" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A234" s="13" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="235" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A235" s="13" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A236" s="13" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="237" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A237" s="13" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="238" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A238" s="14" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="239" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A239" s="14" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="240" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A240" s="14" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="241" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A241" s="15" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="242" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A242" s="15" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="243" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A243" s="15" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="244" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A244" s="15" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="245" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A245" s="15" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="246" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A246" s="16" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="247" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A247" s="17" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="248" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A248" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="249" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A249" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="250" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A250" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="251" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A251" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="252" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A252" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="253" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A253" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="254" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A254" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="255" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A255" s="14" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="256" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A256" s="14" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="257" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A257" s="14" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="258" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A258" s="15" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="259" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A259" s="15" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="260" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A260" s="15" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="261" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A261" s="15" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="262" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A262" s="15" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="263" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A263" s="16" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="264" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A264" s="17" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="265" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A265" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="266" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A266" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="267" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A267" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="268" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A268" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="269" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A269" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="270" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A270" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="271" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A271" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="272" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A272" s="14" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="273" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A273" s="14" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="274" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A274" s="14" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="275" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A275" s="15" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="276" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A276" s="15" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="277" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A277" s="15" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="278" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A278" s="15" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="279" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A279" s="15" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="280" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A280" s="16" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="281" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A281" s="17" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="282" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A282" s="13" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="283" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A283" s="13" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="284" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A284" s="13" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="285" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A285" s="13" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="286" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A286" s="13" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="287" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A287" s="13" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="288" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A288" s="13" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="289" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A289" s="14" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="290" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A290" s="14" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="291" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A291" s="14" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="292" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A292" s="15" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="293" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A293" s="15" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="294" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A294" s="15" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="295" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A295" s="15" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="296" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A296" s="15" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="297" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A297" s="16" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="298" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A298" s="17" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="299" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A299" s="13" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="300" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A300" s="13" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="301" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A301" s="13" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="302" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A302" s="13" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="303" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A303" s="13" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="304" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A304" s="13" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="305" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A305" s="13" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="306" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A306" s="14" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="307" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A307" s="14" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="308" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A308" s="14" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="309" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A309" s="15" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="310" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A310" s="15" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="311" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A311" s="15" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="312" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A312" s="15" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="313" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A313" s="15" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="314" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A314" s="16" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="315" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A315" s="17" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="316" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A316" s="13" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="317" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A317" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="318" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A318" s="13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="319" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A319" s="13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="320" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A320" s="13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="321" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A321" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="322" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A322" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="323" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A323" s="14" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="324" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A324" s="14" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="325" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A325" s="14" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="326" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A326" s="15" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="327" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A327" s="15" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="328" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A328" s="15" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="329" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A329" s="15" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="330" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A330" s="15" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="331" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A331" s="16" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="332" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A332" s="17" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="333" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A333" s="13" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C333" s="20" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A334" s="13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="335" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A335" s="13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="336" spans="1:1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A336" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A337" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="338" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A338" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A339" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="340" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A340" s="14" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="341" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A341" s="14" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A342" s="14" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A343" s="15" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A344" s="15" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A345" s="15" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A346" s="15" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="347" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A347" s="15" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A348" s="16" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A349" s="17" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A350" s="18" t="s">
         <v>46</v>
       </c>
@@ -32873,7 +32916,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A351" s="18" t="s">
         <v>47</v>
       </c>
@@ -32881,7 +32924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A352" s="18" t="s">
         <v>48</v>
       </c>
@@ -32889,20 +32932,29 @@
         <v>433</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A353" s="18" t="s">
         <v>106</v>
       </c>
       <c r="B353" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="C353" s="20" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D353" s="20" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A354" s="18" t="s">
         <v>105</v>
       </c>
       <c r="B354" t="s">
         <v>434</v>
+      </c>
+      <c r="C354" s="20" t="s">
+        <v>1264</v>
       </c>
     </row>
   </sheetData>
@@ -32920,29 +32972,29 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.69921875"/>
-    <col min="10" max="10" width="29.19921875"/>
-    <col min="11" max="11" width="17.296875"/>
-    <col min="12" max="12" width="15.796875"/>
-    <col min="13" max="13" width="13.5"/>
-    <col min="14" max="14" width="31.5"/>
-    <col min="15" max="16" width="16.796875"/>
-    <col min="17" max="17" width="18.796875"/>
-    <col min="18" max="18" width="17.5"/>
-    <col min="19" max="1025" width="17.296875"/>
+    <col min="1" max="1" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.7265625"/>
+    <col min="10" max="10" width="29.1796875"/>
+    <col min="11" max="11" width="17.26953125"/>
+    <col min="12" max="12" width="15.81640625"/>
+    <col min="13" max="13" width="13.453125"/>
+    <col min="14" max="14" width="31.453125"/>
+    <col min="15" max="16" width="16.81640625"/>
+    <col min="17" max="17" width="18.81640625"/>
+    <col min="18" max="18" width="17.453125"/>
+    <col min="19" max="1025" width="17.26953125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="20" customFormat="1" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -33095,9 +33147,9 @@
       <selection activeCell="A3" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -33122,10 +33174,10 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -33152,47 +33204,47 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.69921875"/>
-    <col min="2" max="29" width="5.69921875"/>
-    <col min="30" max="1025" width="17.296875"/>
+    <col min="1" max="1" width="3.7265625"/>
+    <col min="2" max="29" width="5.7265625"/>
+    <col min="30" max="1025" width="17.26953125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-    </row>
-    <row r="2" spans="1:29" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+    </row>
+    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="5" t="s">
@@ -33277,8 +33329,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
         <v>104</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -33366,8 +33418,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
+    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
       <c r="B4" s="5" t="s">
         <v>79</v>
       </c>
@@ -33453,8 +33505,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
       <c r="B5" s="5" t="s">
         <v>80</v>
       </c>
@@ -33540,8 +33592,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
+    <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
       <c r="B6" s="5" t="s">
         <v>81</v>
       </c>
@@ -33627,8 +33679,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
+    <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
       <c r="B7" s="5" t="s">
         <v>82</v>
       </c>
@@ -33714,8 +33766,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
+    <row r="8" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
       <c r="B8" s="5" t="s">
         <v>83</v>
       </c>
@@ -33801,8 +33853,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
+    <row r="9" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
       <c r="B9" s="5" t="s">
         <v>84</v>
       </c>
@@ -33888,8 +33940,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
+    <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
       <c r="B10" s="5" t="s">
         <v>85</v>
       </c>
@@ -33975,8 +34027,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
+    <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
       <c r="B11" s="5" t="s">
         <v>86</v>
       </c>
@@ -34062,8 +34114,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+    <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
       <c r="B12" s="5" t="s">
         <v>87</v>
       </c>
@@ -34149,8 +34201,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
+    <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
       <c r="B13" s="5" t="s">
         <v>88</v>
       </c>
@@ -34236,8 +34288,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
+    <row r="14" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
       <c r="B14" s="5" t="s">
         <v>89</v>
       </c>
@@ -34323,8 +34375,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
+    <row r="15" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
       <c r="B15" s="5" t="s">
         <v>90</v>
       </c>
@@ -34410,8 +34462,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
+    <row r="16" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
       <c r="B16" s="5" t="s">
         <v>91</v>
       </c>
@@ -34497,8 +34549,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
+    <row r="17" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
       <c r="B17" s="5" t="s">
         <v>92</v>
       </c>
@@ -34584,8 +34636,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
+    <row r="18" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
       <c r="B18" s="5" t="s">
         <v>93</v>
       </c>
@@ -34671,8 +34723,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
+    <row r="19" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
       <c r="B19" s="5" t="s">
         <v>94</v>
       </c>
@@ -34758,8 +34810,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
+    <row r="20" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
       <c r="B20" s="5" t="s">
         <v>95</v>
       </c>
@@ -34845,8 +34897,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
+    <row r="21" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
       <c r="B21" s="5" t="s">
         <v>96</v>
       </c>
@@ -34932,8 +34984,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
+    <row r="22" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="28"/>
       <c r="B22" s="5" t="s">
         <v>97</v>
       </c>
@@ -35019,8 +35071,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
+    <row r="23" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
       <c r="B23" s="5" t="s">
         <v>98</v>
       </c>
@@ -35106,8 +35158,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
+    <row r="24" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
       <c r="B24" s="5" t="s">
         <v>99</v>
       </c>
@@ -35193,8 +35245,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
+    <row r="25" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="28"/>
       <c r="B25" s="5" t="s">
         <v>100</v>
       </c>
@@ -35280,8 +35332,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
+    <row r="26" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
       <c r="B26" s="5" t="s">
         <v>101</v>
       </c>
@@ -35367,8 +35419,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
+    <row r="27" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="28"/>
       <c r="B27" s="5" t="s">
         <v>10</v>
       </c>
@@ -35454,8 +35506,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
+    <row r="28" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="28"/>
       <c r="B28" s="5" t="s">
         <v>102</v>
       </c>
@@ -35541,8 +35593,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
+    <row r="29" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="28"/>
       <c r="B29" s="5" t="s">
         <v>103</v>
       </c>
